--- a/Jorrit bewijskaarten/Bewijskaarten_jorrit.xlsx
+++ b/Jorrit bewijskaarten/Bewijskaarten_jorrit.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,15 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7530" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7530" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="1.1" sheetId="1" r:id="rId1"/>
     <sheet name="1.2" sheetId="3" r:id="rId2"/>
+    <sheet name="1.3" sheetId="4" r:id="rId3"/>
+    <sheet name="1.4" sheetId="5" r:id="rId4"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
-    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
+    <externalReference r:id="rId6"/>
   </externalReferences>
   <definedNames>
     <definedName name="AO">[1]Menu!$D$3:$D$76</definedName>
@@ -828,8 +830,768 @@
 </comments>
 </file>
 
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>P.J. van Steen</author>
+  </authors>
+  <commentList>
+    <comment ref="D2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Bewijskaartnummer:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Zelf invullen.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Inhoudsbeschrijving:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Geen een korte beschrijving van het werk.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A11" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Situatie:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> In het kort is de situatie een beschrijving van de antwoorden op de volgende vragen:
+• In welke situatie heb je geoefend?
+• Wanneer heb je hier aan gewerkt?
+• Waar heb je er aan gewerkt?
+• Met wie heb je de opdracht uitgevoerd?
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Voorbeeld: 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ik was samen met mijn groepsgenoot &lt;naam&gt; een opdracht aan het uitvoeren tijdens de praktijksimulatie op school. In deze opdracht moesten we oa. een webserver installeren en een handleiding schrijven.</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A12" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Taak:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+De taak is de omschrijving van de uitgevoerde of uit te voeren opdracht/taak volgens de SMART methode. Let hierbij op dat je alleen de taak beschrijft waarmee je iets wilt bewijzen en beperk de omschrijving dus tot het gekozen onderwerp.
+De taakomschrijving moet antwoord geven op onderstaande vragen:
+• Wat was je opdracht? 
+• Wat moest je precies doen? 
+• Welke ict-vaardigheden heb je moeten gebruiken?
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Voorbeeld:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>In de groep hebben wij afgesproken dat ik de handleiding ga schrijven. De handleiding moet voldoen aan de richtlijnen van de school en vandaag om 16.00 klaar zijn. De inhoud van de handleiding gaat over het installeren van een XAMPP webserver en is zo geschreven dat personen die geen verstand hebben van ICT de installatie uit kunnen voeren.</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A13" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Actie:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Bij de actie beschrijf je alle handelingen bij het uitvoeren van de in stap 5 beschreven taak/opdracht. Het is belangrijk zoveel mogelijk details op te nemen in de beschrijving. Moet je bijvoorbeeld voor de taak even overleggen met een groepsgenoot of collega, noteer dit dan. Hoe uitgebreider de omschrijving hoe beter. 
+Onderstaande vragen kunnen je helpen bij het beschrijven van de actie.
+• Hoe ben je begonnen? Wat deed je eerst en wat daarna? 
+• Met welke speciale materialen/technieken heb je gewerkt?
+• Wat is de reden, dat je dat zo gedaan hebt?
+• Welke kennis had je nodig bij het uitvoeren van je opdracht en hoe heb je die toegepast.
+• Hoe werkt die formule/ dat schema/dat gereedschap?
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Voorbeeld: 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ik ben begonnen met het lezen van de opdracht, daarna heb ik op internet gekeken welke versies er allemaal te vinden zijn. Nadat ik wist welke versie het meest up-to date was heb ik deze gedownload. Ondertussen heb ik ook nog gekeken of ik een handleiding kon vinden op internet die ik kon gebruiken als voorbeeld voor mijn eigen handleiding. Nadat ik alles had doorgelezen ben ik gaan kijken of mijn systeem voldeed aan de gestelde minimale eisen. Na deze controle ben ik gestart met de installatie. Ik heb deze stap voor stap doorlopen en de notities verwerkt in mijn handleiding, samen met de screenshots die ik tijdens de installatie heb gemaakt.
+Vervolgens heb ik de handleiding voorzien van een duidelijke index, paginanummering en een lijst met moeilijke woorden</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A14" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Resultaat:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Bij het resultaat beschrijf je de resultaten van de door jou uitgevoerde actie en de controle door de opdrachtgever. 
+Vragen welke je kunnen helpen bij het beschrijven van het resultaat zijn:
+• Hoe weet je dat je de opdracht goed uitgevoerd hebt? 
+• Hoe reageerden de anderen hierop?
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Voorbeeld:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Tijdens de praktijksimulatie heb ik de handleiding aan mijn groepsgenoot laten zien. Hij vond het een goed handleiding. Aan het eind van de praktijksimulatie is de handleiding beoordeeld door de docent. Deze heeft aangegeven dat het een nette handleiding is maar hij mist alleen de automatische inhoudsopgave.</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A15" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Refelectie:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+In de reflectie kijk je terug op het geheel. Je kijkt dus terug naar de situatie, taak, actie en resultaat welke beschreven staat op je bewijskaart en stelt jezelf onderstaande vragen. De antwoorden gebruik je in je beschrijving.
+• Wat ging er goed? 
+• Wat ging minder goed?
+• Wat en hoe zou je het een volgend keer anders doen?
+• Wat heb je nodig om het een volgend keer beter te doen?
+• Is dat altijd zo? Werkt het altijd zo?
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Voorbeeld</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Ik vond het jammer dat ik van tevoren niet wist dat we een automatische inhoudsopgave moesten gebruiken in de handleiding. In het vervolg ga ik beter navragen wat de exacte wensen zijn van de docent zodat ik mijn taak beter kan omschrijven. Verder is alles goed gegaan en ik was blij dat mijn groepsgenoot mijn handleiding goed vond. De rest van mijn handleiding was prima in orde dus ik ben best trots op mijzelf dat er niet meer opmerkingen waren.
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>P.J. van Steen</author>
+  </authors>
+  <commentList>
+    <comment ref="D2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Bewijskaartnummer:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Zelf invullen.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Inhoudsbeschrijving:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Geen een korte beschrijving van het werk.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A11" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Situatie:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> In het kort is de situatie een beschrijving van de antwoorden op de volgende vragen:
+• In welke situatie heb je geoefend?
+• Wanneer heb je hier aan gewerkt?
+• Waar heb je er aan gewerkt?
+• Met wie heb je de opdracht uitgevoerd?
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Voorbeeld: 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ik was samen met mijn groepsgenoot &lt;naam&gt; een opdracht aan het uitvoeren tijdens de praktijksimulatie op school. In deze opdracht moesten we oa. een webserver installeren en een handleiding schrijven.</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A12" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Taak:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+De taak is de omschrijving van de uitgevoerde of uit te voeren opdracht/taak volgens de SMART methode. Let hierbij op dat je alleen de taak beschrijft waarmee je iets wilt bewijzen en beperk de omschrijving dus tot het gekozen onderwerp.
+De taakomschrijving moet antwoord geven op onderstaande vragen:
+• Wat was je opdracht? 
+• Wat moest je precies doen? 
+• Welke ict-vaardigheden heb je moeten gebruiken?
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Voorbeeld:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>In de groep hebben wij afgesproken dat ik de handleiding ga schrijven. De handleiding moet voldoen aan de richtlijnen van de school en vandaag om 16.00 klaar zijn. De inhoud van de handleiding gaat over het installeren van een XAMPP webserver en is zo geschreven dat personen die geen verstand hebben van ICT de installatie uit kunnen voeren.</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A13" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Actie:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Bij de actie beschrijf je alle handelingen bij het uitvoeren van de in stap 5 beschreven taak/opdracht. Het is belangrijk zoveel mogelijk details op te nemen in de beschrijving. Moet je bijvoorbeeld voor de taak even overleggen met een groepsgenoot of collega, noteer dit dan. Hoe uitgebreider de omschrijving hoe beter. 
+Onderstaande vragen kunnen je helpen bij het beschrijven van de actie.
+• Hoe ben je begonnen? Wat deed je eerst en wat daarna? 
+• Met welke speciale materialen/technieken heb je gewerkt?
+• Wat is de reden, dat je dat zo gedaan hebt?
+• Welke kennis had je nodig bij het uitvoeren van je opdracht en hoe heb je die toegepast.
+• Hoe werkt die formule/ dat schema/dat gereedschap?
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Voorbeeld: 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ik ben begonnen met het lezen van de opdracht, daarna heb ik op internet gekeken welke versies er allemaal te vinden zijn. Nadat ik wist welke versie het meest up-to date was heb ik deze gedownload. Ondertussen heb ik ook nog gekeken of ik een handleiding kon vinden op internet die ik kon gebruiken als voorbeeld voor mijn eigen handleiding. Nadat ik alles had doorgelezen ben ik gaan kijken of mijn systeem voldeed aan de gestelde minimale eisen. Na deze controle ben ik gestart met de installatie. Ik heb deze stap voor stap doorlopen en de notities verwerkt in mijn handleiding, samen met de screenshots die ik tijdens de installatie heb gemaakt.
+Vervolgens heb ik de handleiding voorzien van een duidelijke index, paginanummering en een lijst met moeilijke woorden</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A14" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Resultaat:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Bij het resultaat beschrijf je de resultaten van de door jou uitgevoerde actie en de controle door de opdrachtgever. 
+Vragen welke je kunnen helpen bij het beschrijven van het resultaat zijn:
+• Hoe weet je dat je de opdracht goed uitgevoerd hebt? 
+• Hoe reageerden de anderen hierop?
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Voorbeeld:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Tijdens de praktijksimulatie heb ik de handleiding aan mijn groepsgenoot laten zien. Hij vond het een goed handleiding. Aan het eind van de praktijksimulatie is de handleiding beoordeeld door de docent. Deze heeft aangegeven dat het een nette handleiding is maar hij mist alleen de automatische inhoudsopgave.</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A15" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Refelectie:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+In de reflectie kijk je terug op het geheel. Je kijkt dus terug naar de situatie, taak, actie en resultaat welke beschreven staat op je bewijskaart en stelt jezelf onderstaande vragen. De antwoorden gebruik je in je beschrijving.
+• Wat ging er goed? 
+• Wat ging minder goed?
+• Wat en hoe zou je het een volgend keer anders doen?
+• Wat heb je nodig om het een volgend keer beter te doen?
+• Is dat altijd zo? Werkt het altijd zo?
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Voorbeeld</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Ik vond het jammer dat ik van tevoren niet wist dat we een automatische inhoudsopgave moesten gebruiken in de handleiding. In het vervolg ga ik beter navragen wat de exacte wensen zijn van de docent zodat ik mijn taak beter kan omschrijven. Verder is alles goed gegaan en ik was blij dat mijn groepsgenoot mijn handleiding goed vond. De rest van mijn handleiding was prima in orde dus ik ben best trots op mijzelf dat er niet meer opmerkingen waren.
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="68">
   <si>
     <t>WP = Werkproces          Comp = Comptentie [A..Y]          * B = Basisniveau / G = Gevorderd niveau / BB = Beroepsbekwaam niveau</t>
   </si>
@@ -977,12 +1739,80 @@
   <si>
     <t>kerntaak 1.1: Stelt de vraag en/of de informatiebehoefte vast</t>
   </si>
+  <si>
+    <t>1.3</t>
+  </si>
+  <si>
+    <t>Kerntaak 1.3: Levert een bijdrage aan een functioneel ontwerp of Game Design Document</t>
+  </si>
+  <si>
+    <t>Ik moest zorgen dat bij de prototypes werdt uitgelegd wat de volgorde van de schermen is. Dus als je een activiteit wilt uitvoeren wat de gebruiker allemaal moet doen. Dus welke knoppen een gebruiker moet indrukken om iets uit te voeren. Voor elke activiteit dat een gebruiker kan doen moet een aparte volgorde worden gemaakt.</t>
+  </si>
+  <si>
+    <t>Eerst ben ik gaan kijken welke gebruikers er allemaal in de applicatie moeten komen. Daarna heb ik een lijst gemaakt met alle activiteiten die de gebruikers kunnen doen. Dus bijvoorbeeld bij een leidster een kind aanmaken. Toen heb ik de prototypes erbij gepakt en bover elke prototype een nummer gezet. Hierdoor kon ik aangeven op welk scherm de gebruiker zit. Toen ik de nummers bij elk scherm had gezet ging ik bij elke activiteit zetten wat de volgorde was. Nadat ik de nummers achter elkaar had gezet bij elke activiteit ging ik tussen de nummers ook nog de acties zetten van de gebruikers. Bijvoorbeeld op welke knop ze moeten drukken om naar het volgende schem te gaan. Vervolgens heb ik een compleet overzicht met alle activiteiten waarbij staat wat de volgorde is van de schermen en welke acties de gebruikers moet ondernemen om op de schermen te komen.</t>
+  </si>
+  <si>
+    <t>Het resulataat was dat er een duidelijk overzicht was met wat elke gebruiker kan doen in de applicatie en hoe de gebruiker dat moet gaan doen. Dit is erg fijn voor de opdrachtgever omdat die dan duidelijker kan zien hoe de applicatie precies in elkaar zit en op welke knoppen hij moet drukken om iets te kunnen doen. De opdrachtgever heeft dan ook de volgordelijkheid ondertekend omdat hij dit een logische en makkelijke volgorde vond van de prototypes. Dit is ook fijn voor mezelf want dan weet ik met het maken van de applicatie hoe alles in elkaar moet gaan zitten.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ik vond dat dit erg goed ging. Dit komt omdat ik al in mijn hoofd had hoe de applicatie moest gaan werken. Nu kon ik het dan ook uitwerken en uitleggen hoe de hele applicatie in elkaar gaat zitten en op welke knoppen je allemaal moet drukken. </t>
+  </si>
+  <si>
+    <t>1-3 Levert een bijdrage aan een functioneel ontwerp of Game Design Document (E,I,J,K,U)</t>
+  </si>
+  <si>
+    <t>Projectverslag KT 1-3</t>
+  </si>
+  <si>
+    <t>I Presenteren</t>
+  </si>
+  <si>
+    <t>U Omgaan met veranderingen en aanpassingen</t>
+  </si>
+  <si>
+    <t>1.4</t>
+  </si>
+  <si>
+    <t>Kerntaak 1.4: Maakt een technisch ontwerp</t>
+  </si>
+  <si>
+    <t>Ik moest een modeldictionary maken om te kijken welke klassen er allemaal in onze applicatie zitten. De modeldictionary moet gemaakt worden door in de hernieuwde opdracht de zelfstandige naamwoorden eruit te halen en te kijken of het klassen zijn. Daarna moet ik ook nog een klassendiagam maken. Daarin staan alle klassen met de attributen en de functies. De klassen moeten dan ook verbonden worden met multipliciteiten. Hierdoor kan je kijken of een klas meerdere van een andere klas bevat. Ook moet ik ook nog een datadictionary maken. Hierin moeten alle attributen uitgeschreven worden in een tabel met welke eigenschappen ze allemaal bevatten.</t>
+  </si>
+  <si>
+    <t>Ik ben begonnen met het maken van de modeldictionary. Hierbij heb ik als eerste de hernieuwde opdracht erbij gepakt en alle zelfstandige naamwoorden geselecteerd. Daarna heb ik gekeken of de zelfstandige naamwoorden geschikt zijn. Toen ben ik gaan kijken of het een klasse is of iets anders zoals een irrelevant, vaag, niet kwantificeerbaar, attribuut. Dit heb ik in een schema gezet zodat ik er een goed overzicht van heb. Nadat ik alle klasses had gevonden had ik ze uitgewerkt in een tabel met een omschrijving bij elke klasse. Nadat ik de modeldictionary gemaakt had ging ik de klassendiagram maken. Ik had alle klassen neergezet en de attributen en funcities bij elke klas toegevoegd. Wannneer ik alles ingevuld had ging ik de klassen verbinden met multipliciteiten. Dit houd in dat bijvoorbeeld 1  kind  1  klas kan hebben maar 1  klas meerdere kinderen. Daarna ben ik de datadictionary gaan maken. Voordat ik de datadictionary kon gaan maken moest ik eerst de database normaliseren, dus een overzicht van hoe de database eruit moet komen te zien. Nadat ik dat had gedaan heb ik alle attributen van een tabel in een lijst gezet. Bij elk item staat uitgelegd wat het precies is dus de volgende informatie staat bij elk item: Naam, Atrribuut, Type, Lengte, Verplicht, Omschrijving en keys. Toen alles ingevuld was had ik een complete datadictionary.</t>
+  </si>
+  <si>
+    <t>Het resultaat van de modeldictionary en klassendiagram en datadictionary is dat het duidelijker is welke data wij allemaal in de applicatie gaan hebben. Door deze overzichten is het duidelijk hoe ik de database moet inrichten en welke functies er allemaal in onze applicatie moet gaan komen. Door de documenten is het makkelijker werken omdat je alles duidelijk in een overzicht hebt. In de klassendiagram kan je namelijk zien hoe de klassen zijn verbonden met elkaar. Dus dan is de database maken veel gemakkelijker omdat je alles al uitgedacht hebt.</t>
+  </si>
+  <si>
+    <t>Ik vond dat het wel goed ging omdat ik ongeveer al wist hoe onze database eruit zou moeten komen te zien. Maar het was nog wel lastig om de juiste klasses te selecteren omdat je met verschillende dingen rekening moet houden. Het verbinden van de klassen met multipliciteiten is ook wel wat lastiger omdat je dan goed moet nadenken hoe het precies in elkaar zit. Gelukkig had ik het al vaker gedaan dus wist ik wel hoe je dat het beste kon aanpakken.</t>
+  </si>
+  <si>
+    <t>1-4 Maakt een technisch ontwerp (E,I,J,K,P)</t>
+  </si>
+  <si>
+    <t>Projectverslag KT 1-4</t>
+  </si>
+  <si>
+    <t>P Leren</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1258,85 +2088,87 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1348,43 +2180,43 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1400,100 +2232,102 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard 2" xfId="2"/>
+    <cellStyle name="Standaard 3" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1804,6 +2638,312 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1962150</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Afbeelding 2" descr="RC-kleur-logo-klein.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E30EF39-C542-4621-922E-C343AA052672}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4886325" y="1047750"/>
+          <a:ext cx="1866900" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1962150</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Afbeelding 2" descr="RC-kleur-logo-klein.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97BBC114-718E-41C2-A344-5AF051C9A2F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4886325" y="1047750"/>
+          <a:ext cx="1866900" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1962150</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Afbeelding 2" descr="RC-kleur-logo-klein.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C9D9C6B-9671-45DE-9970-24198C3BD836}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4886325" y="1047750"/>
+          <a:ext cx="1866900" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1962150</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Afbeelding 2" descr="RC-kleur-logo-klein.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C66ACC1C-DAB0-4E60-A26F-D512C76C7014}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4886325" y="1047750"/>
+          <a:ext cx="1866900" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -1829,6 +2969,7 @@
       <sheetName val="LW 02"/>
       <sheetName val="BK BO (2)"/>
       <sheetName val="BK BO"/>
+      <sheetName val="BK BO (3)"/>
       <sheetName val="wk 12"/>
       <sheetName val="wk 13"/>
       <sheetName val="wk 14"/>
@@ -3513,6 +4654,7 @@
       <sheetData sheetId="26"/>
       <sheetData sheetId="27"/>
       <sheetData sheetId="28"/>
+      <sheetData sheetId="29"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -4519,7 +5661,7 @@
   </sheetPr>
   <dimension ref="A1:AA28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="C11" sqref="C11:K11"/>
     </sheetView>
   </sheetViews>
@@ -5181,4 +6323,1378 @@
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Blad47">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:AA28"/>
+  <sheetViews>
+    <sheetView topLeftCell="B4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14:K14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="4" width="9.7109375" customWidth="1"/>
+    <col min="5" max="5" width="33" customWidth="1"/>
+    <col min="6" max="6" width="31" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" customWidth="1"/>
+    <col min="9" max="11" width="10.7109375" customWidth="1"/>
+    <col min="26" max="27" width="0" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="71" t="str">
+        <f>IF('[1]Algemene Informatie'!$B$16="Maak een keuze","Bijlage 10: Bewijskaart ","Bijlage 10: Bewijskaart "&amp;'[1]Algemene Informatie'!$B$16)</f>
+        <v>Bijlage 10: Bewijskaart MD (Mediadeveloper/GEO-ICT 95313)</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+    </row>
+    <row r="2" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="70" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="67" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="65" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="64"/>
+      <c r="M2" s="63"/>
+    </row>
+    <row r="3" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="62"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="73" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="59" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="57" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="56"/>
+    </row>
+    <row r="4" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="55"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="48"/>
+    </row>
+    <row r="5" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="25"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="33"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="29" t="str">
+        <f>IF('[1]Algemene Informatie'!$B$3=0,"",'[1]Algemene Informatie'!$B$3&amp;", "&amp;'[1]Algemene Informatie'!$B$4&amp;" ("&amp;'[1]Algemene Informatie'!$B$5&amp;")"&amp;" "&amp;'[1]Algemene Informatie'!$B$13)</f>
+        <v>Meeuwissen, J.W.C (Jorrit) d206218</v>
+      </c>
+      <c r="E6" s="27"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="30"/>
+      <c r="I6" s="45" t="str">
+        <f>'[1]LW 02'!I3:J3</f>
+        <v>23-5-2016 t/m 24-6-2016</v>
+      </c>
+      <c r="J6" s="44"/>
+      <c r="K6" s="43"/>
+      <c r="O6" s="42"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="40"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="29" t="str">
+        <f>IF('[1]Algemene Informatie'!B17=0,"",'[1]Algemene Informatie'!B17)</f>
+        <v>RIO4-MED3A</v>
+      </c>
+      <c r="E7" s="27"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="30"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="35"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="33"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="29" t="str">
+        <f>IF('[1]Algemene Informatie'!$B$28=0,"",'[1]Algemene Informatie'!$B$28)</f>
+        <v>Humpie Dumpie</v>
+      </c>
+      <c r="E8" s="27"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="30"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="35"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="33"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="29" t="str">
+        <f>IF('[1]Algemene Informatie'!$B$18=0,"",'[1]Algemene Informatie'!$B$18)</f>
+        <v>Piet van Steen</v>
+      </c>
+      <c r="E9" s="27"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="30"/>
+      <c r="I9" s="29" t="str">
+        <f>IF('[1]Algemene Informatie'!$B$32=0,"",'[1]Algemene Informatie'!$B$32)</f>
+        <v>Marlies Aarts</v>
+      </c>
+      <c r="J9" s="28"/>
+      <c r="K9" s="27"/>
+    </row>
+    <row r="10" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="16"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="25"/>
+    </row>
+    <row r="11" spans="1:15" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="23"/>
+      <c r="C11" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="20"/>
+    </row>
+    <row r="12" spans="1:15" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="23"/>
+      <c r="C12" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="20"/>
+    </row>
+    <row r="13" spans="1:15" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="23"/>
+      <c r="C13" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="20"/>
+    </row>
+    <row r="14" spans="1:15" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="23"/>
+      <c r="C14" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="20"/>
+    </row>
+    <row r="15" spans="1:15" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="23"/>
+      <c r="C15" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="20"/>
+    </row>
+    <row r="16" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="18"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="15"/>
+    </row>
+    <row r="17" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" s="12"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K17" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H18" s="7"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z18" s="1" t="str">
+        <f t="shared" ref="Z18:Z27" si="0">OplAfk&amp;"_"&amp;LEFT($A18,1)&amp;MID($A18,3,1)</f>
+        <v>MD_13</v>
+      </c>
+      <c r="AA18" s="1" t="str">
+        <f t="shared" ref="AA18:AA27" si="1">OplAfk&amp;"_"&amp;LEFT($A18,1)&amp;MID($A18,3,1)&amp;LEFT($G18,1)</f>
+        <v>MD_13E</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H19" s="7"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z19" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MD_13</v>
+      </c>
+      <c r="AA19" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>MD_13I</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H20" s="7"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z20" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MD_13</v>
+      </c>
+      <c r="AA20" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>MD_13J</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H21" s="7"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MD_13</v>
+      </c>
+      <c r="AA21" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>MD_13K</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="H22" s="7"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z22" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MD_13</v>
+      </c>
+      <c r="AA22" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>MD_13U</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="8"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="4"/>
+      <c r="Z23" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MD_</v>
+      </c>
+      <c r="AA23" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>MD_</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A24" s="8"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="4"/>
+      <c r="Z24" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MD_</v>
+      </c>
+      <c r="AA24" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>MD_</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A25" s="8"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="4"/>
+      <c r="Z25" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MD_</v>
+      </c>
+      <c r="AA25" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>MD_</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A26" s="8"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="4"/>
+      <c r="Z26" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MD_</v>
+      </c>
+      <c r="AA26" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>MD_</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A27" s="8"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="4"/>
+      <c r="Z27" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MD_</v>
+      </c>
+      <c r="AA27" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>MD_</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="Z28" s="1"/>
+      <c r="AA28" s="1"/>
+    </row>
+  </sheetData>
+  <sheetProtection formatRows="0" selectLockedCells="1"/>
+  <mergeCells count="57">
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:K14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:K15"/>
+    <mergeCell ref="A16:K16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="A10:K10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:K11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:K12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:K13"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A2:C4"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="E3:I4"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="A5:K5"/>
+  </mergeCells>
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G18:I27">
+      <formula1>INDIRECT(Z18)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:K3">
+      <formula1>Locatie</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A18:F27">
+      <formula1>IF(Oplnr=1,AO,IF(Oplnr=2,GD,IF(Oplnr=3,MD,IF(Oplnr=4,IB,IF(Oplnr=5,MB,IF(Oplnr=6,NB,KO))))))</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A28:J65536 A1:A17 L1:IV1048576 J1:K2 K4:K65536 J4:J17 G1:G17 H1:I16 B1:F16"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J18:J27">
+      <formula1>Niveau</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.43307086614173229" bottom="1.04" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="81" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;LParaaf Student
+__________________________
+&amp;CParaaf Praktijkopleider
+__________________________
+Pagina &amp;P van &amp;N&amp;RParaaf Studieloopbaanbegeleider
+__________________________
+Print &amp;D</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Blad48">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:AA28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13:K13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="4" width="9.7109375" customWidth="1"/>
+    <col min="5" max="5" width="33" customWidth="1"/>
+    <col min="6" max="6" width="31" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" customWidth="1"/>
+    <col min="9" max="11" width="10.7109375" customWidth="1"/>
+    <col min="26" max="27" width="0" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="71" t="str">
+        <f>IF('[1]Algemene Informatie'!$B$16="Maak een keuze","Bijlage 10: Bewijskaart ","Bijlage 10: Bewijskaart "&amp;'[1]Algemene Informatie'!$B$16)</f>
+        <v>Bijlage 10: Bewijskaart MD (Mediadeveloper/GEO-ICT 95313)</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+    </row>
+    <row r="2" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="70" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="67" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="65" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="64"/>
+      <c r="M2" s="63"/>
+    </row>
+    <row r="3" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="62"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="73" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="59" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="57" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="56"/>
+    </row>
+    <row r="4" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="55"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="48"/>
+    </row>
+    <row r="5" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="25"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="33"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="29" t="str">
+        <f>IF('[1]Algemene Informatie'!$B$3=0,"",'[1]Algemene Informatie'!$B$3&amp;", "&amp;'[1]Algemene Informatie'!$B$4&amp;" ("&amp;'[1]Algemene Informatie'!$B$5&amp;")"&amp;" "&amp;'[1]Algemene Informatie'!$B$13)</f>
+        <v>Meeuwissen, J.W.C (Jorrit) d206218</v>
+      </c>
+      <c r="E6" s="27"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="30"/>
+      <c r="I6" s="45" t="str">
+        <f>'[1]LW 02'!I3:J3</f>
+        <v>23-5-2016 t/m 24-6-2016</v>
+      </c>
+      <c r="J6" s="44"/>
+      <c r="K6" s="43"/>
+      <c r="O6" s="42"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="40"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="29" t="str">
+        <f>IF('[1]Algemene Informatie'!B17=0,"",'[1]Algemene Informatie'!B17)</f>
+        <v>RIO4-MED3A</v>
+      </c>
+      <c r="E7" s="27"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="30"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="35"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="33"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="29" t="str">
+        <f>IF('[1]Algemene Informatie'!$B$28=0,"",'[1]Algemene Informatie'!$B$28)</f>
+        <v>Humpie Dumpie</v>
+      </c>
+      <c r="E8" s="27"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="30"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="35"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="33"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="29" t="str">
+        <f>IF('[1]Algemene Informatie'!$B$18=0,"",'[1]Algemene Informatie'!$B$18)</f>
+        <v>Piet van Steen</v>
+      </c>
+      <c r="E9" s="27"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="30"/>
+      <c r="I9" s="29" t="str">
+        <f>IF('[1]Algemene Informatie'!$B$32=0,"",'[1]Algemene Informatie'!$B$32)</f>
+        <v>Marlies Aarts</v>
+      </c>
+      <c r="J9" s="28"/>
+      <c r="K9" s="27"/>
+    </row>
+    <row r="10" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="16"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="25"/>
+    </row>
+    <row r="11" spans="1:15" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="23"/>
+      <c r="C11" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="20"/>
+    </row>
+    <row r="12" spans="1:15" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="23"/>
+      <c r="C12" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="20"/>
+    </row>
+    <row r="13" spans="1:15" ht="117" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="23"/>
+      <c r="C13" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="20"/>
+    </row>
+    <row r="14" spans="1:15" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="23"/>
+      <c r="C14" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="20"/>
+    </row>
+    <row r="15" spans="1:15" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="23"/>
+      <c r="C15" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="20"/>
+    </row>
+    <row r="16" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="18"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="15"/>
+    </row>
+    <row r="17" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" s="12"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K17" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H18" s="7"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z18" s="1" t="str">
+        <f t="shared" ref="Z18:Z27" si="0">OplAfk&amp;"_"&amp;LEFT($A18,1)&amp;MID($A18,3,1)</f>
+        <v>MD_14</v>
+      </c>
+      <c r="AA18" s="1" t="str">
+        <f t="shared" ref="AA18:AA27" si="1">OplAfk&amp;"_"&amp;LEFT($A18,1)&amp;MID($A18,3,1)&amp;LEFT($G18,1)</f>
+        <v>MD_14E</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H19" s="7"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z19" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MD_14</v>
+      </c>
+      <c r="AA19" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>MD_14I</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H20" s="7"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z20" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MD_14</v>
+      </c>
+      <c r="AA20" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>MD_14J</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H21" s="7"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MD_14</v>
+      </c>
+      <c r="AA21" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>MD_14K</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="H22" s="7"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z22" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MD_14</v>
+      </c>
+      <c r="AA22" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>MD_14P</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="8"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="4"/>
+      <c r="Z23" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MD_</v>
+      </c>
+      <c r="AA23" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>MD_</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A24" s="8"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="4"/>
+      <c r="Z24" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MD_</v>
+      </c>
+      <c r="AA24" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>MD_</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A25" s="8"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="4"/>
+      <c r="Z25" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MD_</v>
+      </c>
+      <c r="AA25" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>MD_</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A26" s="8"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="4"/>
+      <c r="Z26" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MD_</v>
+      </c>
+      <c r="AA26" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>MD_</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A27" s="8"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="4"/>
+      <c r="Z27" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MD_</v>
+      </c>
+      <c r="AA27" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>MD_</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="Z28" s="1"/>
+      <c r="AA28" s="1"/>
+    </row>
+  </sheetData>
+  <sheetProtection formatRows="0" selectLockedCells="1"/>
+  <mergeCells count="57">
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:K14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:K15"/>
+    <mergeCell ref="A16:K16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="A10:K10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:K11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:K12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:K13"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A2:C4"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="E3:I4"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="A5:K5"/>
+  </mergeCells>
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G18:I27">
+      <formula1>INDIRECT(Z18)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:K3">
+      <formula1>Locatie</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A18:F27">
+      <formula1>IF(Oplnr=1,AO,IF(Oplnr=2,GD,IF(Oplnr=3,MD,IF(Oplnr=4,IB,IF(Oplnr=5,MB,IF(Oplnr=6,NB,KO))))))</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A28:J65536 A1:A17 L1:IV1048576 J1:K2 K4:K65536 J4:J17 G1:G17 H1:I16 B1:F16"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J18:J27">
+      <formula1>Niveau</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.43307086614173229" bottom="1.04" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="81" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;LParaaf Student
+__________________________
+&amp;CParaaf Praktijkopleider
+__________________________
+Pagina &amp;P van &amp;N&amp;RParaaf Studieloopbaanbegeleider
+__________________________
+Print &amp;D</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
 </file>